--- a/data_analyzed/Energy (kcal)/Energy (kcal)_games_1q.xlsx
+++ b/data_analyzed/Energy (kcal)/Energy (kcal)_games_1q.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P45"/>
+  <dimension ref="A1:AF45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,114 +441,234 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Alexis Rainey</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Balduzzi</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Burns</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Curley</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Daud</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>DeLeo</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Diedrichsen</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Doyle</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Espona</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Ferriolo</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Forman</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Hackman</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Hartsch</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Holzman</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Hughes</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>LaCroix</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Larripa</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>McCann</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>McFadden</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Medico</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Myers</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Pla</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Reilly</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Ricci</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Rodrigo</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Smyth</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Streib</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Tollaksen</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Wasyliw</t>
         </is>
       </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Yanovich</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>44801</v>
       </c>
       <c r="B2" t="n">
+        <v>93.3536</v>
+      </c>
+      <c r="C2" t="n">
         <v>214.4859</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>2.7855</v>
       </c>
-      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="n">
-        <v>30.0938</v>
-      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>129.3384</v>
+      </c>
       <c r="J2" t="n">
+        <v>190.6006</v>
+      </c>
+      <c r="K2" t="n">
+        <v>30.0938</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="n">
+        <v>120.0953</v>
+      </c>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="n">
+        <v>225.504</v>
+      </c>
+      <c r="P2" t="n">
+        <v>6.1608</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>198.1253</v>
+      </c>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="n">
         <v>145.2319</v>
       </c>
-      <c r="K2" t="n">
+      <c r="U2" t="n">
+        <v>169.4155</v>
+      </c>
+      <c r="V2" t="n">
         <v>4.1824</v>
       </c>
-      <c r="L2" t="n">
+      <c r="W2" t="n">
+        <v>191.7514</v>
+      </c>
+      <c r="X2" t="n">
         <v>195.7339</v>
       </c>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="Y2" t="n">
+        <v>6.0989</v>
+      </c>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="n">
         <v>183.5009</v>
       </c>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="n">
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="n">
+        <v>230.9538</v>
+      </c>
+      <c r="AE2" t="n">
         <v>55.7228</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>96.3115</v>
       </c>
     </row>
     <row r="3">
@@ -556,35 +676,75 @@
         <v>44804</v>
       </c>
       <c r="B3" t="n">
+        <v>93.6542</v>
+      </c>
+      <c r="C3" t="n">
         <v>227.2337</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>19.5374</v>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>11.8174</v>
-      </c>
+      <c r="E3" t="n">
+        <v>64.8099</v>
+      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>260.3584</v>
+      </c>
       <c r="J3" t="n">
-        <v>127.7668</v>
+        <v>124.9356</v>
       </c>
       <c r="K3" t="n">
-        <v>8.6868</v>
-      </c>
-      <c r="L3" t="n">
-        <v>227.1368</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
-        <v>212.0385</v>
-      </c>
+        <v>11.8174</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="n">
+        <v>195.3041</v>
+      </c>
+      <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="n">
+        <v>15.5526</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>237.0549</v>
+      </c>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="n">
+        <v>127.7668</v>
+      </c>
+      <c r="U3" t="n">
+        <v>203.8295</v>
+      </c>
+      <c r="V3" t="n">
+        <v>8.6868</v>
+      </c>
+      <c r="W3" t="n">
+        <v>95.619</v>
+      </c>
+      <c r="X3" t="n">
+        <v>227.1368</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>8.298999999999999</v>
+      </c>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="n">
+        <v>212.0385</v>
+      </c>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="n">
+        <v>266.9334</v>
+      </c>
+      <c r="AE3" t="n">
         <v>37.6634</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>130.435</v>
       </c>
     </row>
     <row r="4">
@@ -592,35 +752,77 @@
         <v>44808</v>
       </c>
       <c r="B4" t="n">
+        <v>109.266</v>
+      </c>
+      <c r="C4" t="n">
         <v>211.0592</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>3.0383</v>
       </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
-        <v>3.2106</v>
-      </c>
+      <c r="E4" t="n">
+        <v>43.3762</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>243.1513</v>
+      </c>
       <c r="J4" t="n">
+        <v>174.438</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3.2106</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="n">
+        <v>169.2929</v>
+      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="n">
+        <v>214.5437</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4.181</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>195.7589</v>
+      </c>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="n">
         <v>243.6382</v>
       </c>
-      <c r="K4" t="n">
+      <c r="U4" t="n">
+        <v>89.0308</v>
+      </c>
+      <c r="V4" t="n">
         <v>0.901</v>
       </c>
-      <c r="L4" t="n">
+      <c r="W4" t="n">
+        <v>4.7482</v>
+      </c>
+      <c r="X4" t="n">
         <v>198.5358</v>
       </c>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="Y4" t="n">
+        <v>50.2669</v>
+      </c>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="n">
         <v>162.8233</v>
       </c>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="n">
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="n">
+        <v>259.2814</v>
+      </c>
+      <c r="AE4" t="n">
         <v>28.2892</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>133.4149</v>
       </c>
     </row>
     <row r="5">
@@ -628,313 +830,683 @@
         <v>44813</v>
       </c>
       <c r="B5" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="C5" t="n">
         <v>231.3196</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>0.5865</v>
       </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="n">
-        <v>238.7304</v>
-      </c>
+      <c r="E5" t="n">
+        <v>50.245</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>122.6761</v>
+      </c>
       <c r="J5" t="n">
+        <v>184.5626</v>
+      </c>
+      <c r="K5" t="n">
+        <v>238.7304</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="n">
+        <v>250.2755</v>
+      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="n">
+        <v>230.6786</v>
+      </c>
+      <c r="P5" t="n">
+        <v>7.9081</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>228.8045</v>
+      </c>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="n">
         <v>181.3725</v>
       </c>
-      <c r="K5" t="n">
+      <c r="U5" t="n">
+        <v>165.1637</v>
+      </c>
+      <c r="V5" t="n">
         <v>151.2495</v>
       </c>
-      <c r="L5" t="n">
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="n">
         <v>231.7371</v>
       </c>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="Y5" t="n">
+        <v>4.6956</v>
+      </c>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="n">
         <v>79.5145</v>
       </c>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="n">
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="n">
+        <v>238.1298</v>
+      </c>
+      <c r="AE5" t="n">
         <v>43.0257</v>
       </c>
+      <c r="AF5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>44815</v>
       </c>
       <c r="B6" t="n">
+        <v>7.9247</v>
+      </c>
+      <c r="C6" t="n">
         <v>214.2617</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>7.6469</v>
       </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="n">
-        <v>6.8646</v>
-      </c>
+      <c r="E6" t="n">
+        <v>53.412</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>241.705</v>
+      </c>
       <c r="J6" t="n">
+        <v>168.4091</v>
+      </c>
+      <c r="K6" t="n">
+        <v>6.8646</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="n">
+        <v>118.0684</v>
+      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="n">
+        <v>214.8174</v>
+      </c>
+      <c r="P6" t="n">
+        <v>8.8834</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>209.3702</v>
+      </c>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="n">
         <v>241.699</v>
       </c>
-      <c r="K6" t="n">
+      <c r="U6" t="n">
+        <v>98.9152</v>
+      </c>
+      <c r="V6" t="n">
         <v>256.8927</v>
       </c>
-      <c r="L6" t="n">
+      <c r="W6" t="n">
+        <v>7.8909</v>
+      </c>
+      <c r="X6" t="n">
         <v>179.6366</v>
       </c>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="Y6" t="n">
+        <v>11.1913</v>
+      </c>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="n">
         <v>84.5179</v>
       </c>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="n">
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="n">
+        <v>24.8828</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>226.8869</v>
+      </c>
+      <c r="AE6" t="n">
         <v>71.6185</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>44820</v>
       </c>
       <c r="B7" t="n">
+        <v>121.1726</v>
+      </c>
+      <c r="C7" t="n">
         <v>208.6455</v>
       </c>
-      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="n">
-        <v>8.5098</v>
-      </c>
+      <c r="E7" t="n">
+        <v>57.1926</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>231.9792</v>
+      </c>
       <c r="J7" t="n">
+        <v>114.8095</v>
+      </c>
+      <c r="K7" t="n">
+        <v>8.5098</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="n">
+        <v>89.10339999999999</v>
+      </c>
+      <c r="P7" t="n">
+        <v>19.5638</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>234.6803</v>
+      </c>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="n">
         <v>276.2621</v>
       </c>
-      <c r="K7" t="n">
+      <c r="U7" t="n">
+        <v>87.5042</v>
+      </c>
+      <c r="V7" t="n">
         <v>143.5105</v>
       </c>
-      <c r="L7" t="n">
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="n">
         <v>186.6631</v>
       </c>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="Y7" t="n">
+        <v>13.6658</v>
+      </c>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="n">
         <v>214.2668</v>
       </c>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="n">
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="n">
+        <v>19.6383</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>234.7738</v>
+      </c>
+      <c r="AE7" t="n">
         <v>64.401</v>
       </c>
+      <c r="AF7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>44822</v>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
         <v>226.1328</v>
       </c>
-      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="n">
-        <v>6.0587</v>
-      </c>
+      <c r="E8" t="n">
+        <v>65.054</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>268.0672</v>
+      </c>
       <c r="J8" t="n">
+        <v>82.7573</v>
+      </c>
+      <c r="K8" t="n">
+        <v>6.0587</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="n">
+        <v>169.693</v>
+      </c>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="n">
+        <v>171.0414</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5.6694</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>228.4909</v>
+      </c>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="n">
         <v>271.1079</v>
       </c>
-      <c r="K8" t="n">
+      <c r="U8" t="n">
+        <v>157.2991</v>
+      </c>
+      <c r="V8" t="n">
         <v>283.87</v>
       </c>
-      <c r="L8" t="n">
+      <c r="W8" t="n">
+        <v>93.99209999999999</v>
+      </c>
+      <c r="X8" t="n">
         <v>182.3839</v>
       </c>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="Y8" t="n">
+        <v>7.905</v>
+      </c>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="n">
         <v>222.733</v>
       </c>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="n">
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="n">
+        <v>12.8344</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>254.7311</v>
+      </c>
+      <c r="AE8" t="n">
         <v>47.6366</v>
       </c>
+      <c r="AF8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>44827</v>
       </c>
       <c r="B9" t="n">
+        <v>94.0479</v>
+      </c>
+      <c r="C9" t="n">
         <v>208.3306</v>
       </c>
-      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="n">
-        <v>2.9469</v>
-      </c>
+      <c r="E9" t="n">
+        <v>52.1342</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+      <c r="I9" t="n">
+        <v>254.4735</v>
+      </c>
       <c r="J9" t="n">
+        <v>123.8054</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.9469</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="n">
+        <v>172.4976</v>
+      </c>
+      <c r="P9" t="n">
+        <v>9.9655</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>180.4158</v>
+      </c>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="n">
         <v>266.6212</v>
       </c>
-      <c r="K9" t="n">
+      <c r="U9" t="n">
+        <v>164.8232</v>
+      </c>
+      <c r="V9" t="n">
         <v>170.9669</v>
       </c>
-      <c r="L9" t="n">
+      <c r="W9" t="n">
+        <v>3.0447</v>
+      </c>
+      <c r="X9" t="n">
         <v>185.169</v>
       </c>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="Y9" t="n">
+        <v>5.7137</v>
+      </c>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="n">
         <v>196.4806</v>
       </c>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="n">
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="n">
+        <v>5.8017</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>234.301</v>
+      </c>
+      <c r="AE9" t="n">
         <v>31.9273</v>
       </c>
+      <c r="AF9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>44829</v>
       </c>
       <c r="B10" t="n">
+        <v>69.7208</v>
+      </c>
+      <c r="C10" t="n">
         <v>232.0519</v>
       </c>
-      <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="n">
-        <v>8.1213</v>
-      </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>212.4405</v>
+      </c>
       <c r="J10" t="n">
+        <v>221.3075</v>
+      </c>
+      <c r="K10" t="n">
+        <v>8.1213</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="n">
+        <v>166.3751</v>
+      </c>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="n">
+        <v>10.4305</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>224.2038</v>
+      </c>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="n">
         <v>301.0098</v>
       </c>
-      <c r="K10" t="n">
+      <c r="U10" t="n">
+        <v>125.6602</v>
+      </c>
+      <c r="V10" t="n">
         <v>49.3935</v>
       </c>
-      <c r="L10" t="n">
+      <c r="W10" t="n">
+        <v>99.6315</v>
+      </c>
+      <c r="X10" t="n">
         <v>203.511</v>
       </c>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="Y10" t="n">
+        <v>7.3641</v>
+      </c>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="n">
         <v>224.2293</v>
       </c>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr"/>
+      <c r="AC10" t="n">
+        <v>10.4105</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>224.0415</v>
+      </c>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>44834</v>
       </c>
       <c r="B11" t="n">
+        <v>143.4835</v>
+      </c>
+      <c r="C11" t="n">
         <v>255.6405</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>16.4598</v>
       </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="n">
-        <v>11.1035</v>
-      </c>
+      <c r="E11" t="n">
+        <v>68.5642</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>174.9212</v>
+      </c>
       <c r="J11" t="n">
+        <v>196.0809</v>
+      </c>
+      <c r="K11" t="n">
+        <v>11.1035</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
+        <v>11.9993</v>
+      </c>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="n">
+        <v>290.9178</v>
+      </c>
+      <c r="P11" t="n">
+        <v>16.0942</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>244.4327</v>
+      </c>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="n">
         <v>310.979</v>
       </c>
-      <c r="K11" t="n">
+      <c r="U11" t="n">
+        <v>105.9864</v>
+      </c>
+      <c r="V11" t="n">
         <v>173.6323</v>
       </c>
-      <c r="L11" t="n">
+      <c r="W11" t="n">
+        <v>150.0863</v>
+      </c>
+      <c r="X11" t="n">
         <v>205.9492</v>
       </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="Y11" t="n">
+        <v>12.5622</v>
+      </c>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="n">
         <v>246.669</v>
       </c>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="n">
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="n">
+        <v>12.1108</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>273.3102</v>
+      </c>
+      <c r="AE11" t="n">
         <v>44.1006</v>
       </c>
+      <c r="AF11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>44836</v>
       </c>
       <c r="B12" t="n">
+        <v>179.585</v>
+      </c>
+      <c r="C12" t="n">
         <v>228.5501</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>5.6967</v>
       </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="n">
-        <v>5.8512</v>
-      </c>
+      <c r="E12" t="n">
+        <v>46.8777</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>141.067</v>
+      </c>
       <c r="J12" t="n">
+        <v>106.0182</v>
+      </c>
+      <c r="K12" t="n">
+        <v>5.8512</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
+        <v>122.6891</v>
+      </c>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="n">
+        <v>250.0715</v>
+      </c>
+      <c r="P12" t="n">
+        <v>8.2096</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>228.205</v>
+      </c>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="n">
         <v>278.0183</v>
       </c>
-      <c r="K12" t="n">
+      <c r="U12" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="V12" t="n">
         <v>90.8219</v>
       </c>
-      <c r="L12" t="n">
+      <c r="W12" t="n">
+        <v>139.1713</v>
+      </c>
+      <c r="X12" t="n">
         <v>192.5713</v>
       </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="Y12" t="n">
+        <v>5.5728</v>
+      </c>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="n">
         <v>201.7168</v>
       </c>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="n">
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="n">
+        <v>10.3643</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>248.3283</v>
+      </c>
+      <c r="AE12" t="n">
         <v>47.7501</v>
       </c>
+      <c r="AF12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>44841</v>
       </c>
       <c r="B13" t="n">
+        <v>239.6557</v>
+      </c>
+      <c r="C13" t="n">
         <v>204.2044</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>13.9255</v>
       </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="n">
-        <v>14.9351</v>
-      </c>
+      <c r="E13" t="n">
+        <v>52.695</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>212.8106</v>
+      </c>
       <c r="J13" t="n">
+        <v>84.7778</v>
+      </c>
+      <c r="K13" t="n">
+        <v>14.9351</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
+        <v>83.3468</v>
+      </c>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="n">
+        <v>215.3118</v>
+      </c>
+      <c r="P13" t="n">
+        <v>25.8997</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>202.8283</v>
+      </c>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="n">
         <v>245.0967</v>
       </c>
-      <c r="K13" t="n">
+      <c r="U13" t="n">
+        <v>81.07640000000001</v>
+      </c>
+      <c r="V13" t="n">
         <v>8.052099999999999</v>
       </c>
-      <c r="L13" t="n">
+      <c r="W13" t="n">
+        <v>131.4299</v>
+      </c>
+      <c r="X13" t="n">
         <v>176.6429</v>
       </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="Y13" t="n">
+        <v>17.5789</v>
+      </c>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="n">
         <v>196.2808</v>
       </c>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="n">
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="n">
+        <v>17.6861</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>231.069</v>
+      </c>
+      <c r="AE13" t="n">
         <v>55.3151</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>7.1481</v>
       </c>
     </row>
     <row r="14">
@@ -942,35 +1514,79 @@
         <v>44843</v>
       </c>
       <c r="B14" t="n">
+        <v>227.8472</v>
+      </c>
+      <c r="C14" t="n">
         <v>210.696</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>21.5359</v>
       </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="n">
-        <v>15.1229</v>
-      </c>
+      <c r="E14" t="n">
+        <v>55.4404</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>257.2969</v>
+      </c>
       <c r="J14" t="n">
+        <v>51.7904</v>
+      </c>
+      <c r="K14" t="n">
+        <v>15.1229</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
+        <v>8.529</v>
+      </c>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="n">
+        <v>277.3764</v>
+      </c>
+      <c r="P14" t="n">
+        <v>19.6951</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>213.6576</v>
+      </c>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="n">
         <v>279.9726</v>
       </c>
-      <c r="K14" t="n">
+      <c r="U14" t="n">
+        <v>128.2675</v>
+      </c>
+      <c r="V14" t="n">
         <v>36.3045</v>
       </c>
-      <c r="L14" t="n">
+      <c r="W14" t="n">
+        <v>33.5339</v>
+      </c>
+      <c r="X14" t="n">
         <v>221.8859</v>
       </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="Y14" t="n">
+        <v>13.671</v>
+      </c>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="n">
         <v>207.2314</v>
       </c>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="n">
+      <c r="AB14" t="inlineStr"/>
+      <c r="AC14" t="n">
+        <v>19.2495</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>230.3684</v>
+      </c>
+      <c r="AE14" t="n">
         <v>87.0851</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>9.5548</v>
       </c>
     </row>
     <row r="15">
@@ -978,71 +1594,157 @@
         <v>44848</v>
       </c>
       <c r="B15" t="n">
+        <v>210.1868</v>
+      </c>
+      <c r="C15" t="n">
         <v>197.8591</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>11.6927</v>
       </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="n">
-        <v>8.535</v>
-      </c>
+      <c r="E15" t="n">
+        <v>39.661</v>
+      </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>227.9148</v>
+      </c>
       <c r="J15" t="n">
+        <v>65.2371</v>
+      </c>
+      <c r="K15" t="n">
+        <v>8.535</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
+        <v>6.3522</v>
+      </c>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="n">
+        <v>227.7511</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5.2381</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="n">
         <v>259.8506</v>
       </c>
-      <c r="K15" t="n">
+      <c r="U15" t="n">
+        <v>101.8308</v>
+      </c>
+      <c r="V15" t="n">
         <v>3.3966</v>
       </c>
-      <c r="L15" t="n">
+      <c r="W15" t="n">
+        <v>3.8175</v>
+      </c>
+      <c r="X15" t="n">
         <v>161.2937</v>
       </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="Y15" t="n">
+        <v>3.3372</v>
+      </c>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="n">
         <v>171.0703</v>
       </c>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="n">
+      <c r="AB15" t="inlineStr"/>
+      <c r="AC15" t="n">
+        <v>8.780200000000001</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>220.7181</v>
+      </c>
+      <c r="AE15" t="n">
         <v>27.8867</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>58.9898</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>44850</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="n">
         <v>204.8747</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>11.6353</v>
       </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="n">
-        <v>5.1823</v>
-      </c>
+      <c r="E16" t="n">
+        <v>46.0641</v>
+      </c>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>139.4539</v>
+      </c>
       <c r="J16" t="n">
+        <v>101.0143</v>
+      </c>
+      <c r="K16" t="n">
+        <v>5.1823</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
+        <v>63.9102</v>
+      </c>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="n">
+        <v>246.8836</v>
+      </c>
+      <c r="P16" t="n">
+        <v>12.5779</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>221.5946</v>
+      </c>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="n">
         <v>271.2504</v>
       </c>
-      <c r="K16" t="n">
+      <c r="U16" t="n">
+        <v>183.5539</v>
+      </c>
+      <c r="V16" t="n">
         <v>2.426</v>
       </c>
-      <c r="L16" t="n">
+      <c r="W16" t="n">
+        <v>195.7024</v>
+      </c>
+      <c r="X16" t="n">
         <v>188.5415</v>
       </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="Y16" t="n">
+        <v>5.8969</v>
+      </c>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="n">
         <v>210.985</v>
       </c>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="n">
+      <c r="AB16" t="inlineStr"/>
+      <c r="AC16" t="n">
+        <v>10.9023</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>254.3935</v>
+      </c>
+      <c r="AE16" t="n">
         <v>84.8344</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>2.3023</v>
       </c>
     </row>
     <row r="17">
@@ -1050,35 +1752,79 @@
         <v>44855</v>
       </c>
       <c r="B17" t="n">
+        <v>248.9604</v>
+      </c>
+      <c r="C17" t="n">
         <v>231.0342</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>18.8859</v>
       </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="n">
-        <v>12.3728</v>
-      </c>
+      <c r="E17" t="n">
+        <v>45.575</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>137.8937</v>
+      </c>
       <c r="J17" t="n">
+        <v>71.64700000000001</v>
+      </c>
+      <c r="K17" t="n">
+        <v>12.3728</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
+        <v>7.8474</v>
+      </c>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="n">
+        <v>253.7754</v>
+      </c>
+      <c r="P17" t="n">
+        <v>13.7723</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>228.1919</v>
+      </c>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="n">
         <v>280.1782</v>
       </c>
-      <c r="K17" t="n">
+      <c r="U17" t="n">
+        <v>188.7141</v>
+      </c>
+      <c r="V17" t="n">
         <v>6.4622</v>
       </c>
-      <c r="L17" t="n">
+      <c r="W17" t="n">
+        <v>147.0682</v>
+      </c>
+      <c r="X17" t="n">
         <v>201.8658</v>
       </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="Y17" t="n">
+        <v>12.256</v>
+      </c>
+      <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="n">
         <v>198.6063</v>
       </c>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="n">
+      <c r="AB17" t="inlineStr"/>
+      <c r="AC17" t="n">
+        <v>15.4539</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>224.1683</v>
+      </c>
+      <c r="AE17" t="n">
         <v>31.5712</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>7.7143</v>
       </c>
     </row>
     <row r="18">
@@ -1086,35 +1832,77 @@
         <v>44862</v>
       </c>
       <c r="B18" t="n">
+        <v>244.4178</v>
+      </c>
+      <c r="C18" t="n">
         <v>243.7234</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>8.886200000000001</v>
       </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="n">
-        <v>14.2411</v>
-      </c>
+      <c r="E18" t="n">
+        <v>60.0517</v>
+      </c>
+      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>158.0032</v>
+      </c>
       <c r="J18" t="n">
+        <v>11.2994</v>
+      </c>
+      <c r="K18" t="n">
+        <v>14.2411</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
+        <v>2.0241</v>
+      </c>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="n">
+        <v>282.3789</v>
+      </c>
+      <c r="P18" t="n">
+        <v>10.8718</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>232.117</v>
+      </c>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="n">
         <v>289.5344</v>
       </c>
-      <c r="K18" t="n">
+      <c r="U18" t="n">
+        <v>116.4083</v>
+      </c>
+      <c r="V18" t="n">
         <v>7.2541</v>
       </c>
-      <c r="L18" t="n">
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="n">
         <v>229.0315</v>
       </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="Y18" t="n">
+        <v>8.282500000000001</v>
+      </c>
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="n">
         <v>232.0739</v>
       </c>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="n">
+      <c r="AB18" t="inlineStr"/>
+      <c r="AC18" t="n">
+        <v>15.0393</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>268.582</v>
+      </c>
+      <c r="AE18" t="n">
         <v>62.1724</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>6.9635</v>
       </c>
     </row>
     <row r="19">
@@ -1122,1012 +1910,1698 @@
         <v>44864</v>
       </c>
       <c r="B19" t="n">
+        <v>234.2027</v>
+      </c>
+      <c r="C19" t="n">
         <v>213.9188</v>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>9.7563</v>
       </c>
-      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="n">
-        <v>9.8855</v>
-      </c>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>144.1811</v>
+      </c>
       <c r="J19" t="n">
+        <v>38.5853</v>
+      </c>
+      <c r="K19" t="n">
+        <v>9.8855</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
+        <v>10.9356</v>
+      </c>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="n">
+        <v>252.8275</v>
+      </c>
+      <c r="P19" t="n">
+        <v>13.4387</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>183.2127</v>
+      </c>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="n">
         <v>251.6909</v>
       </c>
-      <c r="K19" t="n">
+      <c r="U19" t="n">
+        <v>203.6375</v>
+      </c>
+      <c r="V19" t="n">
         <v>7.8961</v>
       </c>
-      <c r="L19" t="n">
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="n">
         <v>196.6718</v>
       </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="Y19" t="n">
+        <v>10.474</v>
+      </c>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="n">
         <v>208.1066</v>
       </c>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="n">
+      <c r="AB19" t="inlineStr"/>
+      <c r="AC19" t="n">
+        <v>48.1439</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>236.8743</v>
+      </c>
+      <c r="AE19" t="n">
         <v>59.1907</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>11.4734</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>45010</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="n">
         <v>178.7033</v>
       </c>
-      <c r="C20" t="n">
+      <c r="D20" t="n">
         <v>131.3785</v>
       </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="n">
-        <v>160.9171</v>
-      </c>
+      <c r="E20" t="n">
+        <v>5.1436</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>201.3605</v>
+      </c>
       <c r="J20" t="n">
+        <v>166.8913</v>
+      </c>
+      <c r="K20" t="n">
+        <v>160.9171</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="n">
+        <v>139.008</v>
+      </c>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="n">
         <v>216.4151</v>
       </c>
-      <c r="K20" t="n">
+      <c r="U20" t="n">
+        <v>181.1594</v>
+      </c>
+      <c r="V20" t="n">
         <v>145.7713</v>
       </c>
-      <c r="L20" t="n">
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="n">
         <v>167.5995</v>
       </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="n">
         <v>167.4038</v>
       </c>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="n">
+      <c r="AB20" t="inlineStr"/>
+      <c r="AC20" t="n">
+        <v>32.8175</v>
+      </c>
+      <c r="AD20" t="inlineStr"/>
+      <c r="AE20" t="n">
         <v>54.0359</v>
       </c>
+      <c r="AF20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>45035</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="n">
         <v>165.0553</v>
       </c>
-      <c r="C21" t="n">
+      <c r="D21" t="n">
         <v>197.5782</v>
       </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="n">
-        <v>162.0647</v>
-      </c>
+      <c r="E21" t="n">
+        <v>5.7245</v>
+      </c>
+      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
+      <c r="I21" t="n">
+        <v>194.1717</v>
+      </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="n">
+        <v>162.0647</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="n">
         <v>60.4996</v>
       </c>
-      <c r="L21" t="n">
+      <c r="W21" t="n">
+        <v>118.5162</v>
+      </c>
+      <c r="X21" t="n">
         <v>155.8291</v>
       </c>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="n">
         <v>11.3968</v>
       </c>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="n">
+      <c r="AB21" t="inlineStr"/>
+      <c r="AC21" t="n">
+        <v>15.1536</v>
+      </c>
+      <c r="AD21" t="inlineStr"/>
+      <c r="AE21" t="n">
         <v>0</v>
       </c>
+      <c r="AF21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>45156</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="n">
         <v>200.3565</v>
       </c>
-      <c r="C22" t="n">
+      <c r="D22" t="n">
         <v>33.5358</v>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>144.2341</v>
+      </c>
+      <c r="G22" t="n">
         <v>0.7906</v>
       </c>
-      <c r="E22" t="n">
+      <c r="H22" t="n">
         <v>59.0457</v>
       </c>
-      <c r="F22" t="n">
+      <c r="I22" t="n">
+        <v>89.3155</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2.9523</v>
+      </c>
+      <c r="K22" t="n">
         <v>147.819</v>
       </c>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="n">
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>191.5216</v>
       </c>
-      <c r="I22" t="n">
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="n">
+        <v>162.2324</v>
+      </c>
+      <c r="R22" t="n">
         <v>5.123</v>
       </c>
-      <c r="J22" t="n">
+      <c r="S22" t="n">
+        <v>235.6418</v>
+      </c>
+      <c r="T22" t="n">
         <v>167.3326</v>
       </c>
-      <c r="K22" t="n">
+      <c r="U22" t="n">
+        <v>157.218</v>
+      </c>
+      <c r="V22" t="n">
         <v>72.5796</v>
       </c>
-      <c r="L22" t="n">
+      <c r="W22" t="n">
+        <v>135.8391</v>
+      </c>
+      <c r="X22" t="n">
         <v>179.0162</v>
       </c>
-      <c r="M22" t="n">
+      <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="n">
         <v>169.1526</v>
       </c>
-      <c r="N22" t="n">
+      <c r="AA22" t="n">
         <v>2.6081</v>
       </c>
-      <c r="O22" t="n">
+      <c r="AB22" t="n">
         <v>112.733</v>
       </c>
-      <c r="P22" t="n">
+      <c r="AC22" t="inlineStr"/>
+      <c r="AD22" t="inlineStr"/>
+      <c r="AE22" t="n">
         <v>47.3862</v>
       </c>
+      <c r="AF22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>45159</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="n">
         <v>197.7856</v>
       </c>
-      <c r="C23" t="n">
+      <c r="D23" t="n">
         <v>1.846</v>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="n">
+        <v>223.1728</v>
+      </c>
+      <c r="G23" t="n">
         <v>1.4364</v>
       </c>
-      <c r="E23" t="n">
+      <c r="H23" t="n">
         <v>38.5748</v>
       </c>
-      <c r="F23" t="n">
+      <c r="I23" t="n">
+        <v>155.8535</v>
+      </c>
+      <c r="J23" t="n">
+        <v>131.1947</v>
+      </c>
+      <c r="K23" t="n">
         <v>2.5652</v>
       </c>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="n">
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>210.1413</v>
       </c>
-      <c r="I23" t="n">
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="n">
+        <v>222.1854</v>
+      </c>
+      <c r="R23" t="n">
         <v>6.6473</v>
       </c>
-      <c r="J23" t="n">
+      <c r="S23" t="n">
+        <v>285.7749</v>
+      </c>
+      <c r="T23" t="n">
         <v>259.8832</v>
       </c>
-      <c r="K23" t="n">
+      <c r="U23" t="n">
+        <v>128.5518</v>
+      </c>
+      <c r="V23" t="n">
         <v>89.0453</v>
       </c>
-      <c r="L23" t="n">
+      <c r="W23" t="n">
+        <v>129.6259</v>
+      </c>
+      <c r="X23" t="n">
         <v>160.6205</v>
       </c>
-      <c r="M23" t="n">
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="n">
         <v>74.9601</v>
       </c>
-      <c r="N23" t="n">
+      <c r="AA23" t="n">
         <v>155.1708</v>
       </c>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="n">
+      <c r="AB23" t="inlineStr"/>
+      <c r="AC23" t="inlineStr"/>
+      <c r="AD23" t="inlineStr"/>
+      <c r="AE23" t="n">
         <v>0.6592</v>
       </c>
+      <c r="AF23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>45163</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="n">
         <v>206.5211</v>
       </c>
-      <c r="C24" t="n">
+      <c r="D24" t="n">
         <v>3.9109</v>
       </c>
-      <c r="D24" t="n">
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="n">
+        <v>207.0788</v>
+      </c>
+      <c r="G24" t="n">
         <v>6.3548</v>
       </c>
-      <c r="E24" t="n">
+      <c r="H24" t="n">
         <v>21.5447</v>
       </c>
-      <c r="F24" t="n">
+      <c r="I24" t="n">
+        <v>253.5876</v>
+      </c>
+      <c r="J24" t="n">
+        <v>114.4564</v>
+      </c>
+      <c r="K24" t="n">
         <v>6.0445</v>
       </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="n">
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>199.3538</v>
       </c>
-      <c r="I24" t="n">
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="n">
+        <v>168.7312</v>
+      </c>
+      <c r="R24" t="n">
         <v>10.6382</v>
       </c>
-      <c r="J24" t="n">
+      <c r="S24" t="n">
+        <v>255.3036</v>
+      </c>
+      <c r="T24" t="n">
         <v>246.1402</v>
       </c>
-      <c r="K24" t="n">
+      <c r="U24" t="n">
+        <v>77.1109</v>
+      </c>
+      <c r="V24" t="n">
         <v>49.8506</v>
       </c>
-      <c r="L24" t="n">
+      <c r="W24" t="n">
+        <v>173.5532</v>
+      </c>
+      <c r="X24" t="n">
         <v>162.3999</v>
       </c>
-      <c r="M24" t="n">
+      <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="n">
         <v>73.7174</v>
       </c>
-      <c r="N24" t="n">
+      <c r="AA24" t="n">
         <v>167.1376</v>
       </c>
-      <c r="O24" t="n">
+      <c r="AB24" t="n">
         <v>130.0048</v>
       </c>
-      <c r="P24" t="inlineStr"/>
+      <c r="AC24" t="inlineStr"/>
+      <c r="AD24" t="inlineStr"/>
+      <c r="AE24" t="inlineStr"/>
+      <c r="AF24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>45165</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="n">
         <v>214.9172</v>
       </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="n">
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="n">
+        <v>256.1411</v>
+      </c>
+      <c r="G25" t="n">
         <v>7.7223</v>
       </c>
-      <c r="E25" t="n">
+      <c r="H25" t="n">
         <v>25.5165</v>
       </c>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="n">
+      <c r="I25" t="n">
+        <v>108.3162</v>
+      </c>
+      <c r="J25" t="n">
+        <v>161.2999</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>227.5747</v>
       </c>
-      <c r="I25" t="n">
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="n">
+        <v>191.6608</v>
+      </c>
+      <c r="R25" t="n">
         <v>13.3639</v>
       </c>
-      <c r="J25" t="n">
+      <c r="S25" t="n">
+        <v>297.6665</v>
+      </c>
+      <c r="T25" t="n">
         <v>285.2887</v>
       </c>
-      <c r="K25" t="n">
+      <c r="U25" t="n">
+        <v>7.2797</v>
+      </c>
+      <c r="V25" t="n">
         <v>127.5145</v>
       </c>
-      <c r="L25" t="n">
+      <c r="W25" t="n">
+        <v>123.727</v>
+      </c>
+      <c r="X25" t="n">
         <v>231.9363</v>
       </c>
-      <c r="M25" t="n">
+      <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="n">
         <v>230.6289</v>
       </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="n">
+      <c r="AA25" t="inlineStr"/>
+      <c r="AB25" t="n">
         <v>191.44</v>
       </c>
-      <c r="P25" t="n">
+      <c r="AC25" t="inlineStr"/>
+      <c r="AD25" t="inlineStr"/>
+      <c r="AE25" t="n">
         <v>38.7491</v>
       </c>
+      <c r="AF25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>45170</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="n">
         <v>181.8821</v>
       </c>
-      <c r="C26" t="n">
+      <c r="D26" t="n">
         <v>6.2215</v>
       </c>
-      <c r="D26" t="n">
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="n">
+        <v>104.0992</v>
+      </c>
+      <c r="G26" t="n">
         <v>5.855</v>
       </c>
-      <c r="E26" t="n">
+      <c r="H26" t="n">
         <v>14.9394</v>
       </c>
-      <c r="F26" t="n">
+      <c r="I26" t="n">
+        <v>136.6548</v>
+      </c>
+      <c r="J26" t="n">
+        <v>170.2504</v>
+      </c>
+      <c r="K26" t="n">
         <v>7.6893</v>
       </c>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="n">
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>206.7419</v>
       </c>
-      <c r="I26" t="n">
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="n">
+        <v>175.2372</v>
+      </c>
+      <c r="R26" t="n">
         <v>13.5947</v>
       </c>
-      <c r="J26" t="n">
+      <c r="S26" t="n">
+        <v>279.9797</v>
+      </c>
+      <c r="T26" t="n">
         <v>239.1227</v>
       </c>
-      <c r="K26" t="n">
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="n">
         <v>6.6692</v>
       </c>
-      <c r="L26" t="n">
+      <c r="W26" t="n">
+        <v>75.0411</v>
+      </c>
+      <c r="X26" t="n">
         <v>219.0693</v>
       </c>
-      <c r="M26" t="n">
+      <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="n">
         <v>222.7258</v>
       </c>
-      <c r="N26" t="n">
+      <c r="AA26" t="n">
         <v>216.3154</v>
       </c>
-      <c r="O26" t="n">
+      <c r="AB26" t="n">
         <v>206.5936</v>
       </c>
-      <c r="P26" t="n">
+      <c r="AC26" t="inlineStr"/>
+      <c r="AD26" t="inlineStr"/>
+      <c r="AE26" t="n">
         <v>3.3779</v>
       </c>
+      <c r="AF26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>45172</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="n">
         <v>212.349</v>
       </c>
-      <c r="C27" t="n">
+      <c r="D27" t="n">
         <v>5.2992</v>
       </c>
-      <c r="D27" t="n">
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="n">
+        <v>201.3872</v>
+      </c>
+      <c r="G27" t="n">
         <v>4.7498</v>
       </c>
-      <c r="E27" t="n">
+      <c r="H27" t="n">
         <v>13.05</v>
       </c>
-      <c r="F27" t="n">
+      <c r="I27" t="n">
+        <v>89.20229999999999</v>
+      </c>
+      <c r="J27" t="n">
+        <v>144.5639</v>
+      </c>
+      <c r="K27" t="n">
         <v>0</v>
       </c>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="n">
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>223.7064</v>
       </c>
-      <c r="I27" t="n">
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="n">
+        <v>160.718</v>
+      </c>
+      <c r="R27" t="n">
         <v>12.4426</v>
       </c>
-      <c r="J27" t="n">
+      <c r="S27" t="n">
+        <v>192.2836</v>
+      </c>
+      <c r="T27" t="n">
         <v>242.1569</v>
       </c>
-      <c r="K27" t="n">
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="n">
         <v>5.2318</v>
       </c>
-      <c r="L27" t="n">
+      <c r="W27" t="n">
+        <v>137.559</v>
+      </c>
+      <c r="X27" t="n">
         <v>191.8739</v>
       </c>
-      <c r="M27" t="n">
+      <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="n">
         <v>250.4043</v>
       </c>
-      <c r="N27" t="n">
+      <c r="AA27" t="n">
         <v>223.2077</v>
       </c>
-      <c r="O27" t="n">
+      <c r="AB27" t="n">
         <v>205.1925</v>
       </c>
-      <c r="P27" t="n">
+      <c r="AC27" t="inlineStr"/>
+      <c r="AD27" t="inlineStr"/>
+      <c r="AE27" t="n">
         <v>34.9126</v>
       </c>
+      <c r="AF27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>45177</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="n">
         <v>187.7315</v>
       </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="n">
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="n">
+        <v>268.7637</v>
+      </c>
+      <c r="G28" t="n">
         <v>3.4677</v>
       </c>
-      <c r="E28" t="n">
+      <c r="H28" t="n">
         <v>5.0425</v>
       </c>
-      <c r="F28" t="n">
+      <c r="I28" t="n">
+        <v>169.9978</v>
+      </c>
+      <c r="J28" t="n">
+        <v>110.945</v>
+      </c>
+      <c r="K28" t="n">
         <v>2.5521</v>
       </c>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="n">
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>207.4071</v>
       </c>
-      <c r="I28" t="n">
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="n">
+        <v>210.9725</v>
+      </c>
+      <c r="R28" t="n">
         <v>8.950100000000001</v>
       </c>
-      <c r="J28" t="n">
+      <c r="S28" t="n">
+        <v>264.5876</v>
+      </c>
+      <c r="T28" t="n">
         <v>238.9954</v>
       </c>
-      <c r="K28" t="n">
+      <c r="U28" t="n">
+        <v>1.5117</v>
+      </c>
+      <c r="V28" t="n">
         <v>125.686</v>
       </c>
-      <c r="L28" t="n">
+      <c r="W28" t="n">
+        <v>2.8952</v>
+      </c>
+      <c r="X28" t="n">
         <v>159.5889</v>
       </c>
-      <c r="M28" t="n">
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="n">
         <v>145.9346</v>
       </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="n">
+      <c r="AA28" t="inlineStr"/>
+      <c r="AB28" t="n">
         <v>139.8762</v>
       </c>
-      <c r="P28" t="n">
+      <c r="AC28" t="inlineStr"/>
+      <c r="AD28" t="inlineStr"/>
+      <c r="AE28" t="n">
         <v>0.9001</v>
       </c>
+      <c r="AF28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>45179</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="n">
         <v>219.3906</v>
       </c>
-      <c r="C29" t="n">
+      <c r="D29" t="n">
         <v>3.8907</v>
       </c>
-      <c r="D29" t="n">
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="n">
+        <v>170.1384</v>
+      </c>
+      <c r="G29" t="n">
         <v>4.791</v>
       </c>
-      <c r="E29" t="n">
+      <c r="H29" t="n">
         <v>8.858599999999999</v>
       </c>
-      <c r="F29" t="n">
+      <c r="I29" t="n">
+        <v>131.5978</v>
+      </c>
+      <c r="J29" t="n">
+        <v>256.99</v>
+      </c>
+      <c r="K29" t="n">
         <v>5.8185</v>
       </c>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="n">
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>177.9077</v>
       </c>
-      <c r="I29" t="n">
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="n">
         <v>12.1694</v>
       </c>
-      <c r="J29" t="n">
+      <c r="S29" t="n">
+        <v>305.1584</v>
+      </c>
+      <c r="T29" t="n">
         <v>269.6132</v>
       </c>
-      <c r="K29" t="n">
+      <c r="U29" t="n">
+        <v>3.5625</v>
+      </c>
+      <c r="V29" t="n">
         <v>120.4067</v>
       </c>
-      <c r="L29" t="n">
+      <c r="W29" t="n">
+        <v>129.7307</v>
+      </c>
+      <c r="X29" t="n">
         <v>175.3338</v>
       </c>
-      <c r="M29" t="n">
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="n">
         <v>253.4384</v>
       </c>
-      <c r="N29" t="n">
+      <c r="AA29" t="n">
         <v>144.7398</v>
       </c>
-      <c r="O29" t="n">
+      <c r="AB29" t="n">
         <v>174.8554</v>
       </c>
-      <c r="P29" t="n">
+      <c r="AC29" t="inlineStr"/>
+      <c r="AD29" t="inlineStr"/>
+      <c r="AE29" t="n">
         <v>2.1506</v>
       </c>
+      <c r="AF29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>45184</v>
       </c>
       <c r="B30" t="inlineStr"/>
-      <c r="C30" t="n">
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="n">
         <v>2.0887</v>
       </c>
-      <c r="D30" t="n">
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="n">
+        <v>224.5258</v>
+      </c>
+      <c r="G30" t="n">
         <v>5.2199</v>
       </c>
-      <c r="E30" t="n">
+      <c r="H30" t="n">
         <v>7.1711</v>
       </c>
-      <c r="F30" t="n">
+      <c r="I30" t="n">
+        <v>115.4287</v>
+      </c>
+      <c r="J30" t="n">
+        <v>183.1742</v>
+      </c>
+      <c r="K30" t="n">
         <v>5.0663</v>
       </c>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="n">
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>210.5422</v>
       </c>
-      <c r="I30" t="n">
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="n">
         <v>13.6042</v>
       </c>
-      <c r="J30" t="n">
+      <c r="S30" t="n">
+        <v>285.1682</v>
+      </c>
+      <c r="T30" t="n">
         <v>253.5915</v>
       </c>
-      <c r="K30" t="n">
+      <c r="U30" t="n">
+        <v>4.251</v>
+      </c>
+      <c r="V30" t="n">
         <v>91.06789999999999</v>
       </c>
-      <c r="L30" t="n">
+      <c r="W30" t="n">
+        <v>145.5487</v>
+      </c>
+      <c r="X30" t="n">
         <v>200.408</v>
       </c>
-      <c r="M30" t="n">
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="n">
         <v>239.7237</v>
       </c>
-      <c r="N30" t="n">
+      <c r="AA30" t="n">
         <v>163.3804</v>
       </c>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="n">
+      <c r="AB30" t="inlineStr"/>
+      <c r="AC30" t="inlineStr"/>
+      <c r="AD30" t="inlineStr"/>
+      <c r="AE30" t="n">
         <v>37.8315</v>
       </c>
+      <c r="AF30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>45186</v>
       </c>
       <c r="B31" t="inlineStr"/>
-      <c r="C31" t="n">
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="n">
         <v>6.5907</v>
       </c>
-      <c r="D31" t="n">
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="n">
+        <v>209.9018</v>
+      </c>
+      <c r="G31" t="n">
         <v>4.2408</v>
       </c>
-      <c r="E31" t="n">
+      <c r="H31" t="n">
         <v>9.1706</v>
       </c>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="n">
+      <c r="I31" t="n">
+        <v>90.95780000000001</v>
+      </c>
+      <c r="J31" t="n">
+        <v>174.7387</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>208.2793</v>
       </c>
-      <c r="I31" t="n">
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="n">
         <v>11.3334</v>
       </c>
-      <c r="J31" t="n">
+      <c r="S31" t="n">
+        <v>269.3496</v>
+      </c>
+      <c r="T31" t="n">
         <v>266.7365</v>
       </c>
-      <c r="K31" t="n">
+      <c r="U31" t="n">
+        <v>58.8862</v>
+      </c>
+      <c r="V31" t="n">
         <v>5.0954</v>
       </c>
-      <c r="L31" t="n">
+      <c r="W31" t="n">
+        <v>114.4661</v>
+      </c>
+      <c r="X31" t="n">
         <v>200.9438</v>
       </c>
-      <c r="M31" t="n">
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="n">
         <v>0</v>
       </c>
-      <c r="N31" t="n">
+      <c r="AA31" t="n">
         <v>230.7656</v>
       </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="n">
+      <c r="AB31" t="inlineStr"/>
+      <c r="AC31" t="inlineStr"/>
+      <c r="AD31" t="inlineStr"/>
+      <c r="AE31" t="n">
         <v>43.3771</v>
       </c>
+      <c r="AF31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>45191</v>
       </c>
       <c r="B32" t="inlineStr"/>
-      <c r="C32" t="n">
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="n">
         <v>5.5761</v>
       </c>
-      <c r="D32" t="n">
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="n">
+        <v>253.15</v>
+      </c>
+      <c r="G32" t="n">
         <v>6.4633</v>
       </c>
-      <c r="E32" t="n">
+      <c r="H32" t="n">
         <v>8.612500000000001</v>
       </c>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="n">
+      <c r="I32" t="n">
+        <v>69.9693</v>
+      </c>
+      <c r="J32" t="n">
+        <v>230.2486</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>225.6704</v>
       </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="n">
+        <v>211.7141</v>
+      </c>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="n">
+        <v>297.8714</v>
+      </c>
+      <c r="T32" t="n">
         <v>274.5594</v>
       </c>
-      <c r="K32" t="n">
+      <c r="U32" t="n">
+        <v>5.8883</v>
+      </c>
+      <c r="V32" t="n">
         <v>103.9217</v>
       </c>
-      <c r="L32" t="n">
+      <c r="W32" t="n">
+        <v>154.4038</v>
+      </c>
+      <c r="X32" t="n">
         <v>194.6671</v>
       </c>
-      <c r="M32" t="n">
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="n">
         <v>0</v>
       </c>
-      <c r="N32" t="n">
+      <c r="AA32" t="n">
         <v>188.5228</v>
       </c>
-      <c r="O32" t="n">
+      <c r="AB32" t="n">
         <v>235.9963</v>
       </c>
-      <c r="P32" t="n">
+      <c r="AC32" t="inlineStr"/>
+      <c r="AD32" t="inlineStr"/>
+      <c r="AE32" t="n">
         <v>30.2119</v>
       </c>
+      <c r="AF32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>45198</v>
       </c>
       <c r="B33" t="inlineStr"/>
-      <c r="C33" t="n">
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="n">
         <v>8.736599999999999</v>
       </c>
-      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
+      <c r="F33" t="n">
+        <v>266.6748</v>
+      </c>
       <c r="G33" t="inlineStr"/>
-      <c r="H33" t="n">
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>143.9659</v>
+      </c>
+      <c r="J33" t="n">
+        <v>223.2878</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>224.9418</v>
       </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="n">
+        <v>234.3745</v>
+      </c>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="n">
+        <v>301.4688</v>
+      </c>
+      <c r="T33" t="n">
         <v>287.1327</v>
       </c>
-      <c r="K33" t="n">
+      <c r="U33" t="n">
+        <v>12.3431</v>
+      </c>
+      <c r="V33" t="n">
         <v>129.7242</v>
       </c>
-      <c r="L33" t="n">
+      <c r="W33" t="n">
+        <v>91.3443</v>
+      </c>
+      <c r="X33" t="n">
         <v>213.047</v>
       </c>
-      <c r="M33" t="n">
+      <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="n">
         <v>260.3469</v>
       </c>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="n">
+      <c r="AA33" t="inlineStr"/>
+      <c r="AB33" t="n">
         <v>192.7986</v>
       </c>
-      <c r="P33" t="n">
+      <c r="AC33" t="inlineStr"/>
+      <c r="AD33" t="inlineStr"/>
+      <c r="AE33" t="n">
         <v>15.4142</v>
       </c>
+      <c r="AF33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>45200</v>
       </c>
       <c r="B34" t="inlineStr"/>
-      <c r="C34" t="n">
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="n">
         <v>9.2614</v>
       </c>
-      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
+      <c r="F34" t="n">
+        <v>195.1254</v>
+      </c>
       <c r="G34" t="inlineStr"/>
-      <c r="H34" t="n">
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>105.105</v>
+      </c>
+      <c r="J34" t="n">
+        <v>173.0051</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>210.6867</v>
       </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="n">
+        <v>278.7378</v>
+      </c>
+      <c r="T34" t="n">
         <v>259.0105</v>
       </c>
-      <c r="K34" t="n">
+      <c r="U34" t="n">
+        <v>59.0237</v>
+      </c>
+      <c r="V34" t="n">
         <v>66.8218</v>
       </c>
-      <c r="L34" t="n">
+      <c r="W34" t="n">
+        <v>81.07250000000001</v>
+      </c>
+      <c r="X34" t="n">
         <v>202.2987</v>
       </c>
-      <c r="M34" t="n">
+      <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="n">
         <v>205.029</v>
       </c>
-      <c r="N34" t="n">
+      <c r="AA34" t="n">
         <v>229.8144</v>
       </c>
-      <c r="O34" t="n">
+      <c r="AB34" t="n">
         <v>189.3681</v>
       </c>
-      <c r="P34" t="n">
+      <c r="AC34" t="inlineStr"/>
+      <c r="AD34" t="inlineStr"/>
+      <c r="AE34" t="n">
         <v>57.3705</v>
       </c>
+      <c r="AF34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>45205</v>
       </c>
       <c r="B35" t="inlineStr"/>
-      <c r="C35" t="n">
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="n">
         <v>24.4168</v>
       </c>
-      <c r="D35" t="n">
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="n">
+        <v>229.7578</v>
+      </c>
+      <c r="G35" t="n">
         <v>4.5981</v>
       </c>
-      <c r="E35" t="n">
+      <c r="H35" t="n">
         <v>7.9391</v>
       </c>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="n">
+      <c r="I35" t="n">
+        <v>106.4986</v>
+      </c>
+      <c r="J35" t="n">
+        <v>197.2384</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>210.2661</v>
       </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="n">
+        <v>266.8586</v>
+      </c>
+      <c r="T35" t="n">
         <v>259.8789</v>
       </c>
-      <c r="K35" t="n">
+      <c r="U35" t="n">
+        <v>4.5007</v>
+      </c>
+      <c r="V35" t="n">
         <v>43.5667</v>
       </c>
-      <c r="L35" t="n">
+      <c r="W35" t="n">
+        <v>63.9857</v>
+      </c>
+      <c r="X35" t="n">
         <v>196.9209</v>
       </c>
-      <c r="M35" t="n">
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="n">
         <v>237.946</v>
       </c>
-      <c r="N35" t="n">
+      <c r="AA35" t="n">
         <v>223.5871</v>
       </c>
-      <c r="O35" t="n">
+      <c r="AB35" t="n">
         <v>207.8054</v>
       </c>
-      <c r="P35" t="n">
+      <c r="AC35" t="inlineStr"/>
+      <c r="AD35" t="inlineStr"/>
+      <c r="AE35" t="n">
         <v>27.2272</v>
       </c>
+      <c r="AF35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>45207</v>
       </c>
       <c r="B36" t="inlineStr"/>
-      <c r="C36" t="n">
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="n">
         <v>5.9528</v>
       </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="n">
-        <v>9.963200000000001</v>
-      </c>
-      <c r="F36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="n">
+        <v>254.5506</v>
+      </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="n">
+        <v>9.963200000000001</v>
+      </c>
+      <c r="I36" t="n">
+        <v>94.81</v>
+      </c>
+      <c r="J36" t="n">
+        <v>222.6474</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>222.3095</v>
       </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="n">
+        <v>307.4991</v>
+      </c>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="n">
         <v>56.6143</v>
       </c>
-      <c r="L36" t="n">
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="n">
         <v>223.41</v>
       </c>
-      <c r="M36" t="n">
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="n">
         <v>273.4036</v>
       </c>
-      <c r="N36" t="n">
+      <c r="AA36" t="n">
         <v>231.606</v>
       </c>
-      <c r="O36" t="n">
+      <c r="AB36" t="n">
         <v>217.6258</v>
       </c>
-      <c r="P36" t="n">
+      <c r="AC36" t="inlineStr"/>
+      <c r="AD36" t="inlineStr"/>
+      <c r="AE36" t="n">
         <v>41.2405</v>
       </c>
+      <c r="AF36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>45212</v>
       </c>
       <c r="B37" t="inlineStr"/>
-      <c r="C37" t="n">
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="n">
         <v>1.3983</v>
       </c>
-      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
+      <c r="F37" t="n">
+        <v>210.6562</v>
+      </c>
       <c r="G37" t="inlineStr"/>
-      <c r="H37" t="n">
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>146.4521</v>
+      </c>
+      <c r="J37" t="n">
+        <v>209.365</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>184.3644</v>
       </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="n">
+        <v>265.3092</v>
+      </c>
+      <c r="T37" t="n">
         <v>245.776</v>
       </c>
-      <c r="K37" t="n">
+      <c r="U37" t="n">
+        <v>2.6782</v>
+      </c>
+      <c r="V37" t="n">
         <v>58.528</v>
       </c>
-      <c r="L37" t="n">
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="n">
         <v>231.4165</v>
       </c>
-      <c r="M37" t="n">
+      <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="n">
         <v>220.8759</v>
       </c>
-      <c r="N37" t="n">
+      <c r="AA37" t="n">
         <v>173.015</v>
       </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="n">
+      <c r="AB37" t="inlineStr"/>
+      <c r="AC37" t="inlineStr"/>
+      <c r="AD37" t="inlineStr"/>
+      <c r="AE37" t="n">
         <v>32.1195</v>
       </c>
+      <c r="AF37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>45219</v>
       </c>
       <c r="B38" t="inlineStr"/>
-      <c r="C38" t="n">
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="n">
         <v>2.5161</v>
       </c>
-      <c r="D38" t="n">
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="n">
+        <v>261.4411</v>
+      </c>
+      <c r="G38" t="n">
         <v>2.4176</v>
       </c>
-      <c r="E38" t="n">
+      <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="n">
+      <c r="I38" t="n">
+        <v>99.93819999999999</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>206.6642</v>
       </c>
-      <c r="I38" t="n">
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
+      <c r="S38" t="n">
+        <v>267.9426</v>
+      </c>
+      <c r="T38" t="n">
         <v>233.6069</v>
       </c>
-      <c r="K38" t="n">
+      <c r="U38" t="n">
+        <v>3.3932</v>
+      </c>
+      <c r="V38" t="n">
         <v>2.1077</v>
       </c>
-      <c r="L38" t="n">
+      <c r="W38" t="n">
+        <v>3.2419</v>
+      </c>
+      <c r="X38" t="n">
         <v>213.944</v>
       </c>
-      <c r="M38" t="n">
+      <c r="Y38" t="inlineStr"/>
+      <c r="Z38" t="n">
         <v>222.4151</v>
       </c>
-      <c r="N38" t="n">
+      <c r="AA38" t="n">
         <v>222.4065</v>
       </c>
-      <c r="O38" t="n">
+      <c r="AB38" t="n">
         <v>178.4323</v>
       </c>
-      <c r="P38" t="n">
+      <c r="AC38" t="inlineStr"/>
+      <c r="AD38" t="inlineStr"/>
+      <c r="AE38" t="n">
         <v>64.7933</v>
       </c>
+      <c r="AF38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>45221</v>
       </c>
       <c r="B39" t="inlineStr"/>
-      <c r="C39" t="n">
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="n">
         <v>3.5986</v>
       </c>
-      <c r="D39" t="n">
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="n">
+        <v>247.662</v>
+      </c>
+      <c r="G39" t="n">
         <v>3.1799</v>
       </c>
-      <c r="E39" t="n">
+      <c r="H39" t="n">
         <v>3.2782</v>
       </c>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="n">
+      <c r="I39" t="n">
+        <v>102.7984</v>
+      </c>
+      <c r="J39" t="n">
+        <v>182.6567</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>207.332</v>
       </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="n">
+        <v>270.9701</v>
+      </c>
+      <c r="T39" t="n">
         <v>269.4466</v>
       </c>
-      <c r="K39" t="n">
+      <c r="U39" t="n">
+        <v>3.4086</v>
+      </c>
+      <c r="V39" t="n">
         <v>60.5765</v>
       </c>
-      <c r="L39" t="n">
+      <c r="W39" t="n">
+        <v>20.761</v>
+      </c>
+      <c r="X39" t="n">
         <v>194.5998</v>
       </c>
-      <c r="M39" t="n">
+      <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="n">
         <v>227.5705</v>
       </c>
-      <c r="N39" t="n">
+      <c r="AA39" t="n">
         <v>245.8469</v>
       </c>
-      <c r="O39" t="n">
+      <c r="AB39" t="n">
         <v>232.0303</v>
       </c>
-      <c r="P39" t="n">
+      <c r="AC39" t="inlineStr"/>
+      <c r="AD39" t="inlineStr"/>
+      <c r="AE39" t="n">
         <v>45.027</v>
       </c>
+      <c r="AF39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>45226</v>
       </c>
       <c r="B40" t="inlineStr"/>
-      <c r="C40" t="n">
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="n">
         <v>2.5604</v>
       </c>
-      <c r="D40" t="n">
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="n">
+        <v>271.9462</v>
+      </c>
+      <c r="G40" t="n">
         <v>3.2168</v>
       </c>
-      <c r="E40" t="n">
+      <c r="H40" t="n">
         <v>5.6547</v>
       </c>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="n">
+      <c r="I40" t="n">
+        <v>4.086</v>
+      </c>
+      <c r="J40" t="n">
+        <v>212.3401</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>212.8778</v>
       </c>
-      <c r="I40" t="n">
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
+      <c r="S40" t="n">
+        <v>273.9489</v>
+      </c>
+      <c r="T40" t="n">
         <v>258.8325</v>
       </c>
-      <c r="K40" t="n">
+      <c r="U40" t="n">
+        <v>2.516</v>
+      </c>
+      <c r="V40" t="n">
         <v>69.7115</v>
       </c>
-      <c r="L40" t="n">
+      <c r="W40" t="n">
+        <v>1.6361</v>
+      </c>
+      <c r="X40" t="n">
         <v>206.9411</v>
       </c>
-      <c r="M40" t="n">
+      <c r="Y40" t="inlineStr"/>
+      <c r="Z40" t="n">
         <v>245.0986</v>
       </c>
-      <c r="N40" t="n">
+      <c r="AA40" t="n">
         <v>236.0408</v>
       </c>
-      <c r="O40" t="n">
+      <c r="AB40" t="n">
         <v>234.923</v>
       </c>
-      <c r="P40" t="n">
+      <c r="AC40" t="inlineStr"/>
+      <c r="AD40" t="inlineStr"/>
+      <c r="AE40" t="n">
         <v>25.2305</v>
       </c>
+      <c r="AF40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>45228</v>
       </c>
       <c r="B41" t="inlineStr"/>
-      <c r="C41" t="n">
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="n">
         <v>8.7835</v>
       </c>
-      <c r="D41" t="n">
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="n">
+        <v>262.6535</v>
+      </c>
+      <c r="G41" t="n">
         <v>7.8061</v>
       </c>
-      <c r="E41" t="n">
+      <c r="H41" t="n">
         <v>11.6564</v>
       </c>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="n">
+      <c r="I41" t="n">
+        <v>206.6565</v>
+      </c>
+      <c r="J41" t="n">
+        <v>224.8779</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>198.7141</v>
       </c>
-      <c r="I41" t="n">
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="n">
         <v>12.7707</v>
       </c>
-      <c r="J41" t="n">
+      <c r="S41" t="n">
+        <v>270.9529</v>
+      </c>
+      <c r="T41" t="n">
         <v>129.7999</v>
       </c>
-      <c r="K41" t="n">
+      <c r="U41" t="n">
+        <v>92.6734</v>
+      </c>
+      <c r="V41" t="n">
         <v>125.2467</v>
       </c>
-      <c r="L41" t="n">
+      <c r="W41" t="n">
+        <v>67.0502</v>
+      </c>
+      <c r="X41" t="n">
         <v>195.3396</v>
       </c>
-      <c r="M41" t="n">
+      <c r="Y41" t="inlineStr"/>
+      <c r="Z41" t="n">
         <v>247.1112</v>
       </c>
-      <c r="N41" t="n">
+      <c r="AA41" t="n">
         <v>91.9046</v>
       </c>
-      <c r="O41" t="n">
+      <c r="AB41" t="n">
         <v>240.1575</v>
       </c>
-      <c r="P41" t="n">
+      <c r="AC41" t="inlineStr"/>
+      <c r="AD41" t="inlineStr"/>
+      <c r="AE41" t="n">
         <v>46.1318</v>
       </c>
+      <c r="AF41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>45232</v>
       </c>
       <c r="B42" t="inlineStr"/>
-      <c r="C42" t="n">
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="n">
         <v>15.1661</v>
       </c>
-      <c r="D42" t="n">
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="n">
+        <v>260.9223</v>
+      </c>
+      <c r="G42" t="n">
         <v>5.577</v>
       </c>
-      <c r="E42" t="n">
+      <c r="H42" t="n">
         <v>11.6012</v>
       </c>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="n">
+      <c r="I42" t="n">
+        <v>98.86669999999999</v>
+      </c>
+      <c r="J42" t="n">
+        <v>201.7845</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>182.1686</v>
       </c>
-      <c r="I42" t="n">
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="n">
         <v>16.4427</v>
       </c>
-      <c r="J42" t="n">
+      <c r="S42" t="n">
+        <v>246.5779</v>
+      </c>
+      <c r="T42" t="n">
         <v>271.9968</v>
       </c>
-      <c r="K42" t="n">
+      <c r="U42" t="n">
+        <v>6.5871</v>
+      </c>
+      <c r="V42" t="n">
         <v>114.3918</v>
       </c>
-      <c r="L42" t="n">
+      <c r="W42" t="n">
+        <v>13.2419</v>
+      </c>
+      <c r="X42" t="n">
         <v>220.3778</v>
       </c>
-      <c r="M42" t="n">
+      <c r="Y42" t="inlineStr"/>
+      <c r="Z42" t="n">
         <v>217.2542</v>
       </c>
-      <c r="N42" t="n">
+      <c r="AA42" t="n">
         <v>219.609</v>
       </c>
-      <c r="O42" t="n">
+      <c r="AB42" t="n">
         <v>219.9921</v>
       </c>
-      <c r="P42" t="n">
+      <c r="AC42" t="inlineStr"/>
+      <c r="AD42" t="inlineStr"/>
+      <c r="AE42" t="n">
         <v>36.4715</v>
       </c>
+      <c r="AF42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2135,87 +3609,119 @@
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr"/>
-      <c r="D43" t="n">
-        <v>182.4017</v>
-      </c>
-      <c r="E43" t="n">
-        <v>223.5314</v>
-      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="n">
+        <v>182.4017</v>
+      </c>
+      <c r="H43" t="n">
+        <v>223.5314</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
         <v>159.3901</v>
       </c>
-      <c r="H43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>173.2349</v>
       </c>
-      <c r="I43" t="n">
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="n">
         <v>136.803</v>
       </c>
-      <c r="J43" t="n">
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="n">
         <v>227.2054</v>
       </c>
-      <c r="K43" t="n">
+      <c r="U43" t="inlineStr"/>
+      <c r="V43" t="n">
         <v>203.8901</v>
       </c>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="W43" t="inlineStr"/>
+      <c r="X43" t="inlineStr"/>
+      <c r="Y43" t="inlineStr"/>
+      <c r="Z43" t="n">
         <v>200.1955</v>
       </c>
-      <c r="N43" t="n">
+      <c r="AA43" t="n">
         <v>203.6973</v>
       </c>
-      <c r="O43" t="n">
+      <c r="AB43" t="n">
         <v>210.8298</v>
       </c>
-      <c r="P43" t="n">
+      <c r="AC43" t="inlineStr"/>
+      <c r="AD43" t="inlineStr"/>
+      <c r="AE43" t="n">
         <v>79.89409999999999</v>
       </c>
+      <c r="AF43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>45396</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="n">
         <v>166.1721</v>
       </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="n">
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="n">
         <v>114.5936</v>
       </c>
-      <c r="E44" t="n">
+      <c r="H44" t="n">
         <v>238.2264</v>
       </c>
-      <c r="F44" t="n">
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="n">
         <v>206.7374</v>
       </c>
-      <c r="G44" t="n">
+      <c r="L44" t="n">
         <v>152.4625</v>
       </c>
-      <c r="H44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>193.5476</v>
       </c>
-      <c r="I44" t="n">
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="n">
         <v>148.5888</v>
       </c>
-      <c r="J44" t="n">
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="n">
         <v>244.2215</v>
       </c>
-      <c r="K44" t="n">
+      <c r="U44" t="inlineStr"/>
+      <c r="V44" t="n">
         <v>192.7661</v>
       </c>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="W44" t="inlineStr"/>
+      <c r="X44" t="inlineStr"/>
+      <c r="Y44" t="inlineStr"/>
+      <c r="Z44" t="n">
         <v>228.787</v>
       </c>
-      <c r="N44" t="n">
+      <c r="AA44" t="n">
         <v>189.5779</v>
       </c>
-      <c r="O44" t="n">
+      <c r="AB44" t="n">
         <v>179.5993</v>
       </c>
-      <c r="P44" t="n">
+      <c r="AC44" t="inlineStr"/>
+      <c r="AD44" t="inlineStr"/>
+      <c r="AE44" t="n">
         <v>75.5438</v>
       </c>
+      <c r="AF44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2224,38 +3730,54 @@
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="n">
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="n">
         <v>215.8772</v>
       </c>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="n">
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
         <v>107.352</v>
       </c>
-      <c r="H45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>155.0903</v>
       </c>
-      <c r="I45" t="n">
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="n">
         <v>115.8193</v>
       </c>
-      <c r="J45" t="n">
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="n">
         <v>209.4635</v>
       </c>
-      <c r="K45" t="n">
+      <c r="U45" t="inlineStr"/>
+      <c r="V45" t="n">
         <v>187.2952</v>
       </c>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="W45" t="inlineStr"/>
+      <c r="X45" t="inlineStr"/>
+      <c r="Y45" t="inlineStr"/>
+      <c r="Z45" t="n">
         <v>223.171</v>
       </c>
-      <c r="N45" t="n">
+      <c r="AA45" t="n">
         <v>179.378</v>
       </c>
-      <c r="O45" t="n">
+      <c r="AB45" t="n">
         <v>205.4901</v>
       </c>
-      <c r="P45" t="n">
+      <c r="AC45" t="inlineStr"/>
+      <c r="AD45" t="inlineStr"/>
+      <c r="AE45" t="n">
         <v>69.96769999999999</v>
       </c>
+      <c r="AF45" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
